--- a/P1-Test-a-Perceptual-Phenomenon/stroopdata_workings.xlsx
+++ b/P1-Test-a-Perceptual-Phenomenon/stroopdata_workings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="700" windowWidth="28160" windowHeight="15220" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="15220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="stroopdata" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>Congruent</t>
   </si>
@@ -41,24 +41,15 @@
     <t>Squared Deviation From Mean</t>
   </si>
   <si>
-    <t>t-statistic</t>
-  </si>
-  <si>
     <t>t-crit, (23,0.05)</t>
   </si>
   <si>
     <t>sample size, n</t>
   </si>
   <si>
-    <t>dof</t>
-  </si>
-  <si>
     <t>alpha</t>
   </si>
   <si>
-    <t>t-crit, (23,0.025)</t>
-  </si>
-  <si>
     <t>sample std. dev. of the differences</t>
   </si>
   <si>
@@ -68,30 +59,6 @@
     <t>mean difference</t>
   </si>
   <si>
-    <t>HYPOTHESIS TEST:</t>
-  </si>
-  <si>
-    <t>DECISION:</t>
-  </si>
-  <si>
-    <t>H_0:</t>
-  </si>
-  <si>
-    <t>No difference</t>
-  </si>
-  <si>
-    <t>H_a:</t>
-  </si>
-  <si>
-    <t>Slowed down (mean difference &lt; 0)</t>
-  </si>
-  <si>
-    <t>Because p &lt; 0.05</t>
-  </si>
-  <si>
-    <t>Reject the null</t>
-  </si>
-  <si>
     <t>Conclusion:</t>
   </si>
   <si>
@@ -104,50 +71,89 @@
     <t>Frequency</t>
   </si>
   <si>
-    <t>Bins</t>
-  </si>
-  <si>
-    <t>median diefference</t>
-  </si>
-  <si>
-    <t>Lower bound</t>
-  </si>
-  <si>
-    <t>Upper bound</t>
-  </si>
-  <si>
     <t>SUM</t>
   </si>
   <si>
     <t>AVERAGE</t>
   </si>
   <si>
-    <t>COMPUTED VALUES</t>
-  </si>
-  <si>
-    <t>95% CONFIDENCE INTERVAL:</t>
-  </si>
-  <si>
-    <t>Sample mean</t>
-  </si>
-  <si>
-    <t>Standard error</t>
-  </si>
-  <si>
-    <t>OWN MEASUREMENTS:</t>
-  </si>
-  <si>
-    <t>Falls within the 95% confidence interval</t>
+    <t>90% CONFIDENCE INTERVAL:</t>
+  </si>
+  <si>
+    <t>Falls within the 90% confidence interval</t>
+  </si>
+  <si>
+    <t>p-value of t-score</t>
+  </si>
+  <si>
+    <t>Cohen's d</t>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>DESCRIPTIVE STATISTICS:</t>
+  </si>
+  <si>
+    <t>INFERENCE STATISTICS:</t>
+  </si>
+  <si>
+    <t>EFFECT SIZE MEASURE:</t>
+  </si>
+  <si>
+    <t>OWN EXPERIMENT RESULTS:</t>
+  </si>
+  <si>
+    <t>Lower limit</t>
+  </si>
+  <si>
+    <t>Upper limit</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>standard error</t>
+  </si>
+  <si>
+    <t>Time difference</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>t-score</t>
+  </si>
+  <si>
+    <t>median difference</t>
+  </si>
+  <si>
+    <t>&lt; 0.001</t>
+  </si>
+  <si>
+    <t>df</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -171,6 +177,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -180,7 +198,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -208,11 +226,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -232,6 +277,26 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -460,11 +525,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2128776416"/>
-        <c:axId val="-2130242448"/>
+        <c:axId val="-2047221088"/>
+        <c:axId val="-2056141568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2128776416"/>
+        <c:axId val="-2047221088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -568,7 +633,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2130242448"/>
+        <c:crossAx val="-2056141568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -576,7 +641,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2130242448"/>
+        <c:axId val="-2056141568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -668,7 +733,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2128776416"/>
+        <c:crossAx val="-2047221088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1298,16 +1363,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1592,38 +1657,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
       <c r="I1" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1638,11 +1701,8 @@
         <v>-7.1989999999999981</v>
       </c>
       <c r="D2" s="2">
-        <f>(C2-$C$28)^2</f>
+        <f>(C2-$C$27)^2</f>
         <v>0.58643687673611011</v>
-      </c>
-      <c r="G2">
-        <v>-22</v>
       </c>
       <c r="I2" s="4">
         <v>-22</v>
@@ -1663,11 +1723,8 @@
         <v>-1.9499999999999993</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D25" si="1">(C3-$C$28)^2</f>
+        <f t="shared" ref="D3:D25" si="1">(C3-$C$27)^2</f>
         <v>36.177718793402754</v>
-      </c>
-      <c r="G3">
-        <v>-20</v>
       </c>
       <c r="I3" s="4">
         <v>-20</v>
@@ -1691,9 +1748,6 @@
         <f t="shared" si="1"/>
         <v>13.580760460069452</v>
       </c>
-      <c r="G4">
-        <v>-18</v>
-      </c>
       <c r="I4" s="4">
         <v>-18</v>
       </c>
@@ -1716,9 +1770,6 @@
         <f t="shared" si="1"/>
         <v>0.8240857100694422</v>
       </c>
-      <c r="G5">
-        <v>-16</v>
-      </c>
       <c r="I5" s="4">
         <v>-16</v>
       </c>
@@ -1741,9 +1792,6 @@
         <f t="shared" si="1"/>
         <v>2.8631460069445447E-2</v>
       </c>
-      <c r="G6">
-        <v>-14</v>
-      </c>
       <c r="I6" s="4">
         <v>-14</v>
       </c>
@@ -1766,9 +1814,6 @@
         <f t="shared" si="1"/>
         <v>0.4559062934027821</v>
       </c>
-      <c r="G7">
-        <v>-12</v>
-      </c>
       <c r="I7" s="4">
         <v>-12</v>
       </c>
@@ -1791,9 +1836,6 @@
         <f t="shared" si="1"/>
         <v>3.6680229600694507</v>
       </c>
-      <c r="G8">
-        <v>-10</v>
-      </c>
       <c r="I8" s="4">
         <v>-10</v>
       </c>
@@ -1816,9 +1858,6 @@
         <f t="shared" si="1"/>
         <v>0.1955482100694452</v>
       </c>
-      <c r="G9">
-        <v>-8</v>
-      </c>
       <c r="I9" s="4">
         <v>-8</v>
       </c>
@@ -1841,9 +1880,6 @@
         <f t="shared" si="1"/>
         <v>11.5342310434028</v>
       </c>
-      <c r="G10">
-        <v>-6</v>
-      </c>
       <c r="I10" s="4">
         <v>-6</v>
       </c>
@@ -1866,9 +1902,6 @@
         <f t="shared" si="1"/>
         <v>14.724167793402795</v>
       </c>
-      <c r="G11">
-        <v>-4</v>
-      </c>
       <c r="I11" s="4">
         <v>-4</v>
       </c>
@@ -1891,9 +1924,6 @@
         <f t="shared" si="1"/>
         <v>33.278957293402733</v>
       </c>
-      <c r="G12">
-        <v>-2</v>
-      </c>
       <c r="I12" s="4">
         <v>-2</v>
       </c>
@@ -1916,9 +1946,6 @@
         <f t="shared" si="1"/>
         <v>21.333236460069436</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
       <c r="I13" s="4">
         <v>0</v>
       </c>
@@ -1942,7 +1969,7 @@
         <v>30.556480710069401</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="J14" s="6">
         <v>0</v>
@@ -2161,40 +2188,47 @@
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="17">
+        <f>SUM(D2:D25)</f>
+        <v>544.33043995833327</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="4"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D27" s="1">
-        <f>SUM(D2:D25)</f>
-        <v>544.33043995833327</v>
-      </c>
+    <row r="27" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="18">
+        <f>AVERAGE(A2:A25)</f>
+        <v>14.051125000000001</v>
+      </c>
+      <c r="B27" s="18">
+        <f>AVERAGE(B2:B25)</f>
+        <v>22.015916666666669</v>
+      </c>
+      <c r="C27" s="18">
+        <f>AVERAGE(C2:C25)</f>
+        <v>-7.964791666666664</v>
+      </c>
+      <c r="D27" s="19"/>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="4"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <f>AVERAGE(A2:A25)</f>
-        <v>14.051125000000001</v>
-      </c>
-      <c r="B28" s="2">
-        <f>AVERAGE(B2:B25)</f>
-        <v>22.015916666666669</v>
-      </c>
-      <c r="C28" s="2">
-        <f>AVERAGE(C2:C25)</f>
-        <v>-7.964791666666664</v>
-      </c>
-      <c r="E28" t="s">
-        <v>30</v>
-      </c>
+    <row r="28" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="4"/>
@@ -2202,8 +2236,11 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
+      <c r="B29" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="C29" s="2"/>
+      <c r="D29" s="11"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="4"/>
@@ -2211,10 +2248,16 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="11" t="s">
-        <v>31</v>
+      <c r="B30" s="14"/>
+      <c r="C30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="2">
+        <f>MEDIAN(C2:C25)</f>
+        <v>-7.6664999999999992</v>
+      </c>
+      <c r="E30" t="s">
+        <v>30</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -2222,14 +2265,15 @@
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
       <c r="C31" s="8" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2">
-        <f>MEDIAN(C2:C25)</f>
-        <v>-7.6664999999999992</v>
+        <f>C27</f>
+        <v>-7.964791666666664</v>
+      </c>
+      <c r="E31" t="s">
+        <v>30</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
@@ -2237,251 +2281,276 @@
       <c r="J31" s="5"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C32" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="2">
-        <f>C28</f>
-        <v>-7.964791666666664</v>
+      <c r="C32" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <f>COUNT(D2:D25)</f>
+        <v>24</v>
       </c>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="4"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C33" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33">
-        <f>COUNT(D2:D25)</f>
-        <v>24</v>
+        <v>7</v>
+      </c>
+      <c r="D33" s="2">
+        <f>SQRT(D26/(D32-1))</f>
+        <v>4.8648269103590538</v>
+      </c>
+      <c r="E33" t="s">
+        <v>30</v>
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="4"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C34" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="2">
-        <f>SQRT(D27/(D33-1))</f>
-        <v>4.8648269103590538</v>
-      </c>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C35" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="2">
-        <f>D34/SQRT(D33)</f>
-        <v>0.99302863477834025</v>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B35" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="4"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="2">
+        <f>D33/SQRT(D32)</f>
+        <v>0.99302863477834025</v>
+      </c>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="4"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" t="s">
-        <v>14</v>
+        <v>31</v>
+      </c>
+      <c r="D37" s="2">
+        <f>D31/D36</f>
+        <v>-8.020706944109957</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="4"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" t="s">
-        <v>16</v>
+        <v>34</v>
+      </c>
+      <c r="D38" s="3">
+        <f>D32-1</f>
+        <v>23</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="4"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" t="s">
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.05</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
-      <c r="I39" s="4"/>
+      <c r="I39" s="5"/>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="2">
-        <f>D32/D35</f>
-        <v>-8.020706944109957</v>
-      </c>
-      <c r="F40" t="s">
-        <v>20</v>
+      <c r="D40">
+        <v>-1.714</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="3">
-        <f>D33-1</f>
+        <v>18</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D42" s="12"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B43" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F41" t="s">
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
         <v>19</v>
       </c>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="1">
+      <c r="D44" s="2">
+        <f>D37/D33</f>
+        <v>-1.648713734712913</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" ht="19" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="2">
+        <f>D37^2/(D37^2+D38)</f>
+        <v>0.73663641614450603</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B47" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="1">
         <v>0.05</v>
       </c>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-    </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C43" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43">
-        <v>-1.714</v>
-      </c>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-    </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C45" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C46" t="s">
-        <v>33</v>
-      </c>
-      <c r="D46" s="2">
-        <f>D32</f>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="2">
+        <f>D31</f>
         <v>-7.964791666666664</v>
       </c>
-    </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C47" t="s">
-        <v>34</v>
-      </c>
-      <c r="D47" s="2">
-        <f>D35</f>
+      <c r="E49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="2">
+        <f>D36</f>
         <v>0.99302863477834025</v>
       </c>
-    </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C48" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48">
-        <v>2.069</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C50" t="s">
-        <v>27</v>
-      </c>
-      <c r="D50" s="2">
-        <f>D32-D48*(D34/SQRT(D33))</f>
-        <v>-10.01936791202305</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
-        <v>28</v>
-      </c>
-      <c r="D51" s="2">
-        <f>D32+D48*(D34/SQRT(D33))</f>
-        <v>-5.9102154213102782</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>1.714</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="D53" s="2">
+        <f>D31-D51*(D33/SQRT(D32))</f>
+        <v>-9.666842746676739</v>
+      </c>
+      <c r="E53" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="2">
+        <f>D31+D51*(D33/SQRT(D32))</f>
+        <v>-6.2627405866565891</v>
+      </c>
+      <c r="E54" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B56" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
         <v>0</v>
       </c>
-      <c r="D54">
+      <c r="D57">
         <v>17.283000000000001</v>
       </c>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C55" t="s">
+      <c r="E57" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
         <v>1</v>
       </c>
-      <c r="D55">
+      <c r="D58">
         <v>26.439</v>
       </c>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C56" t="s">
-        <v>2</v>
-      </c>
-      <c r="D56">
-        <f>D54-D55</f>
+      <c r="E58" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59">
+        <f>D57-D58</f>
         <v>-9.1559999999999988</v>
       </c>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C57" t="s">
-        <v>21</v>
-      </c>
-      <c r="D57" t="s">
-        <v>36</v>
+      <c r="E59" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="I18:I40">
     <sortCondition ref="I18"/>
   </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="61" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="60" max="16383" man="1"/>
+  </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="12" max="1048575" man="1"/>
+  </colBreaks>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/P1-Test-a-Perceptual-Phenomenon/stroopdata_workings.xlsx
+++ b/P1-Test-a-Perceptual-Phenomenon/stroopdata_workings.xlsx
@@ -106,9 +106,6 @@
     <t>DESCRIPTIVE STATISTICS:</t>
   </si>
   <si>
-    <t>INFERENCE STATISTICS:</t>
-  </si>
-  <si>
     <t>EFFECT SIZE MEASURE:</t>
   </si>
   <si>
@@ -143,6 +140,9 @@
   </si>
   <si>
     <t>df</t>
+  </si>
+  <si>
+    <t>INFERENTIAL STATISTICS:</t>
   </si>
 </sst>
 </file>
@@ -525,11 +525,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2047221088"/>
-        <c:axId val="-2056141568"/>
+        <c:axId val="-2046355920"/>
+        <c:axId val="-2046282848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2047221088"/>
+        <c:axId val="-2046355920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -633,7 +633,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2056141568"/>
+        <c:crossAx val="-2046282848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -641,7 +641,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2056141568"/>
+        <c:axId val="-2046282848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -733,7 +733,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2047221088"/>
+        <c:crossAx val="-2046355920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1659,8 +1659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2250,14 +2250,14 @@
       <c r="A30" s="2"/>
       <c r="B30" s="14"/>
       <c r="C30" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D30" s="2">
         <f>MEDIAN(C2:C25)</f>
         <v>-7.6664999999999992</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -2273,7 +2273,7 @@
         <v>-7.964791666666664</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
@@ -2302,7 +2302,7 @@
         <v>4.8648269103590538</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="15" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
@@ -2333,7 +2333,7 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D37" s="2">
         <f>D31/D36</f>
@@ -2346,7 +2346,7 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D38" s="3">
         <f>D32-1</f>
@@ -2386,7 +2386,7 @@
         <v>18</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.2">
@@ -2394,7 +2394,7 @@
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.2">
@@ -2434,26 +2434,26 @@
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D49" s="2">
         <f>D31</f>
         <v>-7.964791666666664</v>
       </c>
       <c r="E49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2">
         <f>D36</f>
         <v>0.99302863477834025</v>
       </c>
       <c r="E50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
@@ -2466,26 +2466,26 @@
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D53" s="2">
         <f>D31-D51*(D33/SQRT(D32))</f>
         <v>-9.666842746676739</v>
       </c>
       <c r="E53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D54" s="2">
         <f>D31+D51*(D33/SQRT(D32))</f>
         <v>-6.2627405866565891</v>
       </c>
       <c r="E54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
@@ -2493,7 +2493,7 @@
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
@@ -2504,7 +2504,7 @@
         <v>17.283000000000001</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
@@ -2515,19 +2515,19 @@
         <v>26.439</v>
       </c>
       <c r="E58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D59">
         <f>D57-D58</f>
         <v>-9.1559999999999988</v>
       </c>
       <c r="E59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
@@ -2545,6 +2545,9 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="61" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri,Regular"&amp;K000000P1: Test a Perceptual Phenomenon&amp;C&amp;"Calibri,Regular"&amp;K000000Data Section</oddHeader>
+  </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="60" max="16383" man="1"/>
   </rowBreaks>
